--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_6_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_6_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02061014927295282</v>
+        <v>0.09494813238296555</v>
       </c>
       <c r="C2">
-        <v>0.5307165768554823</v>
+        <v>0.5332219804412588</v>
       </c>
       <c r="D2">
-        <v>0.4246633807067914</v>
+        <v>0.4006434568944247</v>
       </c>
       <c r="E2">
-        <v>0.6516620141659258</v>
+        <v>0.6329640249606803</v>
       </c>
       <c r="F2">
-        <v>0.6600791699699085</v>
+        <v>0.6398668578903548</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.002639081331896749</v>
+        <v>0.01602953393462571</v>
       </c>
       <c r="C3">
-        <v>0.5032583231776769</v>
+        <v>0.5143741298588096</v>
       </c>
       <c r="D3">
-        <v>0.4509145249033519</v>
+        <v>0.4182794719077274</v>
       </c>
       <c r="E3">
-        <v>0.6715016938946259</v>
+        <v>0.6467452913688103</v>
       </c>
       <c r="F3">
-        <v>0.6807589662702414</v>
+        <v>0.6617615586588519</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02300102354713777</v>
+        <v>0.1085716555968761</v>
       </c>
       <c r="C4">
-        <v>0.4481898549111507</v>
+        <v>0.452885312363856</v>
       </c>
       <c r="D4">
-        <v>0.3424892496503695</v>
+        <v>0.3549274518830394</v>
       </c>
       <c r="E4">
-        <v>0.5852258108203785</v>
+        <v>0.5957578802525733</v>
       </c>
       <c r="F4">
-        <v>0.5930687093988719</v>
+        <v>0.6002471406497429</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.063269666137972</v>
+        <v>0.1299845358620406</v>
       </c>
       <c r="C5">
-        <v>0.5622315121972951</v>
+        <v>0.608575057432829</v>
       </c>
       <c r="D5">
-        <v>0.5035024281572434</v>
+        <v>0.5363125488530067</v>
       </c>
       <c r="E5">
-        <v>0.7095790499706452</v>
+        <v>0.7323336322012028</v>
       </c>
       <c r="F5">
-        <v>0.7170708024079048</v>
+        <v>0.7394283491068494</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07259514903254248</v>
+        <v>0.07656759945532947</v>
       </c>
       <c r="C6">
-        <v>0.486818508489938</v>
+        <v>0.3700814829430278</v>
       </c>
       <c r="D6">
-        <v>0.4492176902830339</v>
+        <v>0.2616870517883947</v>
       </c>
       <c r="E6">
-        <v>0.6702370403693263</v>
+        <v>0.5115535668807273</v>
       </c>
       <c r="F6">
-        <v>0.6763139753434233</v>
+        <v>0.5196507713807427</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09720760569623374</v>
+        <v>0.2093201528469608</v>
       </c>
       <c r="C7">
-        <v>0.5575828133517227</v>
+        <v>0.5868146440123966</v>
       </c>
       <c r="D7">
-        <v>0.5356207789132004</v>
+        <v>0.5026012083360064</v>
       </c>
       <c r="E7">
-        <v>0.7318611746179738</v>
+        <v>0.7089437271998437</v>
       </c>
       <c r="F7">
-        <v>0.7366235934604803</v>
+        <v>0.6969746841155865</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08579714949145892</v>
+        <v>0.1086669261956075</v>
       </c>
       <c r="C8">
-        <v>0.6157958088880937</v>
+        <v>0.4904301031709458</v>
       </c>
       <c r="D8">
-        <v>0.5801132353518863</v>
+        <v>0.3878951139765857</v>
       </c>
       <c r="E8">
-        <v>0.7616516496088526</v>
+        <v>0.6228122622240073</v>
       </c>
       <c r="F8">
-        <v>0.7689134920030246</v>
+        <v>0.6321329183393875</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
